--- a/plots/data/STEP272_2/pk-ratio.xlsx
+++ b/plots/data/STEP272_2/pk-ratio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hoby/dev/exasky/helios/plots/data/STEP272_2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5FCE18CF-B9F6-1544-B4C6-9ABD2B41BF64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{AF52C0D2-3443-4D43-8593-EEE1FCEAA0D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31280" yWindow="6440" windowWidth="17400" windowHeight="20120" activeTab="2" xr2:uid="{DD2BFBC9-A91C-1F45-88BF-2470F62F1CFC}"/>
   </bookViews>
@@ -30595,7 +30595,7 @@
   <dimension ref="A1:C887"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
